--- a/biology/Botanique/Holboellia/Holboellia.xlsx
+++ b/biology/Botanique/Holboellia/Holboellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holboellia est un genre de plantes de la famille des Lardizabalacées. Il est originaire des zones himalayennes, principalement de Chine.
 Nom chinois : 八月瓜属 
@@ -512,7 +524,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes de ce genre sont des plantes vivaces, grimpantes aux tiges ligneuses.
 Les feuilles sont alternes, souvent persistantes. Imparipennées, relativement symétriques, elles comptent trois, cinq ou neuf folioles. Les pétiolules latéraux sont plus petits que le pétiolule terminal.
@@ -549,12 +563,14 @@
           <t>Position taxonomique et historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nathaniel Wallich décrit ce genre en 1824[2]. Il le dédie à Frederick Louis Holbøll, conservateur de 1793 à 1829 du jardin botanique de Copenhague[3]. Il y décrit deux espèces : Holboellia angustifolia et Holboellia latifolia, cette dernière étant l'espèce-type.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel Wallich décrit ce genre en 1824. Il le dédie à Frederick Louis Holbøll, conservateur de 1793 à 1829 du jardin botanique de Copenhague. Il y décrit deux espèces : Holboellia angustifolia et Holboellia latifolia, cette dernière étant l'espèce-type.
 Un peu plus tard, Nathaniel Wallich semble avoir réuni le genre avec celui décrit par De Candole : Stauntonia (cela est signalé par Joseph Decaisne).
-En 1827, Kurt Sprengel assure une nouvelle description, avec une modification orthographique : Hollböllia, au point que cette dénomination est considérée comme un homonyme illégal[4].
-En 1831, William Jackson Hooker crée un homonyme dans la famille des Poacées[5]. L'homonymie est levée par Joseph Decaisne en 1839, qui très justement conteste ce réemploi et renomme donc le genre en Lopholepis[6].
+En 1827, Kurt Sprengel assure une nouvelle description, avec une modification orthographique : Hollböllia, au point que cette dénomination est considérée comme un homonyme illégal.
+En 1831, William Jackson Hooker crée un homonyme dans la famille des Poacées. L'homonymie est levée par Joseph Decaisne en 1839, qui très justement conteste ce réemploi et renomme donc le genre en Lopholepis.
 Par la suite, le genre va osciller entre un maintien comme genre autonome - position de François Gagnepain ou Alfred Rehder et Ernest Henry Wilson - et une intégration dans le genre Stauntonia - position de William Botting Hemsley -.
 Les récentes études phylogénétiques le maintiennent toutes comme genre distinct (Wang Wei et al. et Wang Feng et al., en référence).
 </t>
@@ -585,7 +601,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre ne comprend que quinze espèces avec de nombreux synonymes. La liste est issue de différents index (l'index international des noms de plante, index du jardin botanique de Saint Louis du Missouri, the Plant List) et des documents cités en référence. Les espèces conservées dans le genre sont mises en caractères gras :
 Holboellia acuminata Lindl. (1847) - Voir Holboellia angustifolia Wall.
@@ -655,7 +673,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est originaire des zones himalayennes, principalement de Chine.
 L'usage ornemental de plusieurs espèces en lianes décoratives l'ont répandu à l'ensemble des zones tempérées.
@@ -687,7 +707,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits de quelques espèces de ce genre sont comestibles (pulpe).
 La principale utilisation actuelle est ornementale.
